--- a/biology/Zoologie/Galerie_des_Crambidae/Galerie_des_Crambidae.xlsx
+++ b/biology/Zoologie/Galerie_des_Crambidae/Galerie_des_Crambidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Galerie d'identification visuelle des Crambidae.</t>
@@ -511,7 +523,9 @@
           <t>Agriphila</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Agriphila straminella  (Denis &amp; Schiffermüller, 1775)
@@ -544,7 +558,9 @@
           <t>Ancylolomia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ancylolomia tentaculella  (Hübner, 1796)
@@ -576,7 +592,9 @@
           <t>Chrysoteuchia</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chrysoteuchia culmella  (Linnaeus, 1758)
@@ -608,7 +626,9 @@
           <t>Crambus</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Crambus lathoniellus  (Zincken, 1817)
@@ -641,7 +661,9 @@
           <t>Elophila</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Elophila nymphaeata  (Linnaeus, 1758)
@@ -673,7 +695,9 @@
           <t>Eudonia</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Eudonia lacustrata  (Panzer, 1804)
@@ -705,7 +729,9 @@
           <t>Eurrhypara</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Eurrhypara hortulata  (Linnaeus, 1758)
@@ -737,7 +763,9 @@
           <t>Ostrinia</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ostrinia nubilalis   (Hübner, 1796)
@@ -769,7 +797,9 @@
           <t>Pleuroptya</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pleuroptya ruralis   (Scopoli, 1763)
@@ -801,7 +831,9 @@
           <t>Ptochostola</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ptochostola microphaeellus   (Walker, 1866)
@@ -833,7 +865,9 @@
           <t>Pyrausta</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pyrausta aurata  (Scopoli, 1763)
@@ -868,7 +902,9 @@
           <t>Sitochroa</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Sitochroa palealis   (Denis &amp; Schiffermüller, 1775)
